--- a/old inputs/input_old.xlsx
+++ b/old inputs/input_old.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="860">
   <si>
     <t>Name</t>
   </si>
@@ -2893,6 +2893,12 @@
   </si>
   <si>
     <t>OutputSpecEnergy</t>
+  </si>
+  <si>
+    <t>MIPGap</t>
+  </si>
+  <si>
+    <t>TimeLimit</t>
   </si>
 </sst>
 </file>
@@ -3722,7 +3728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -14522,10 +14528,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14537,7 +14543,7 @@
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -14553,8 +14559,14 @@
       <c r="E1" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>858</v>
+      </c>
+      <c r="G1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>96</v>
       </c>
@@ -14569,6 +14581,12 @@
       </c>
       <c r="E2">
         <v>400</v>
+      </c>
+      <c r="F2">
+        <v>1E-4</v>
+      </c>
+      <c r="G2">
+        <v>3600</v>
       </c>
     </row>
   </sheetData>
